--- a/src/test/resources/testDataFiles/MV_TestData_Different_Tests.xlsx
+++ b/src/test/resources/testDataFiles/MV_TestData_Different_Tests.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7325\git\MV_Selenium_Using_Shaft_Engine\src\test\resources\testDataFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7325\Sample_Project_Using_Shaft_Engine\MV_WebApp_New_Syntax\src\test\resources\testDataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE71A501-3AB9-49AD-9A79-70A5C8F42E70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58CC5D8E-8EB3-4521-B81A-DAC67F34B2A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13935" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{F9CDADB8-3C7A-4B96-B80B-F4BE14C35D5B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="MV_Testdaten" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
   <si>
     <t>DE</t>
   </si>
@@ -106,6 +106,15 @@
   </si>
   <si>
     <t>Regnutzer1</t>
+  </si>
+  <si>
+    <t>Buchungssprache</t>
+  </si>
+  <si>
+    <t>Deutsch</t>
+  </si>
+  <si>
+    <t>Polski</t>
   </si>
 </sst>
 </file>
@@ -156,7 +165,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="12">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -204,19 +216,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8E45C3FA-C640-4B8F-9083-C9F1B05DB5F9}" name="Table1" displayName="Table1" ref="A1:J9" totalsRowShown="0" dataDxfId="10">
-  <autoFilter ref="A1:J9" xr:uid="{8E45C3FA-C640-4B8F-9083-C9F1B05DB5F9}"/>
-  <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{B2C706B3-B42B-47C4-B557-0E1262DAA214}" name="TestCaseId" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{3DB15357-4581-41C5-B49D-B9744F286021}" name="TestCaseStatus" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{85264F0D-B2F2-4595-8974-E074EF4A0C70}" name="Run" dataDxfId="7"/>
-    <tableColumn id="10" xr3:uid="{F6F77428-074A-45CE-BCA6-F6DC13DD1ED0}" name="Rolle" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{EBEDFFC1-C772-434D-9019-B001FD28F3E8}" name="Zulassungsland" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{9A33874C-0F84-48F5-9AAC-EC60C3421809}" name="Kennzeichen" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{65CB41C7-B1AA-44E9-92FF-65DC61D58191}" name="Schadstoffklasse" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{F27C8E5D-E83D-4E83-8032-8BF30C7625B2}" name="Gewichtsklasse" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{82A03F32-4466-48D4-B7FE-E905D3063057}" name="Achszahl" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{260F1C3A-4BE9-46CC-95A3-9E05D8E76514}" name="Zahlart" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8E45C3FA-C640-4B8F-9083-C9F1B05DB5F9}" name="Table1" displayName="Table1" ref="A1:K9" totalsRowShown="0" dataDxfId="11">
+  <autoFilter ref="A1:K9" xr:uid="{8E45C3FA-C640-4B8F-9083-C9F1B05DB5F9}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{B2C706B3-B42B-47C4-B557-0E1262DAA214}" name="TestCaseId" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{3DB15357-4581-41C5-B49D-B9744F286021}" name="TestCaseStatus" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{85264F0D-B2F2-4595-8974-E074EF4A0C70}" name="Run" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{F6F77428-074A-45CE-BCA6-F6DC13DD1ED0}" name="Rolle" dataDxfId="7"/>
+    <tableColumn id="11" xr3:uid="{5F829302-32C0-4BB6-B9AE-7EC41321F819}" name="Buchungssprache" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{EBEDFFC1-C772-434D-9019-B001FD28F3E8}" name="Zulassungsland" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{9A33874C-0F84-48F5-9AAC-EC60C3421809}" name="Kennzeichen" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{65CB41C7-B1AA-44E9-92FF-65DC61D58191}" name="Schadstoffklasse" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{F27C8E5D-E83D-4E83-8032-8BF30C7625B2}" name="Gewichtsklasse" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{82A03F32-4466-48D4-B7FE-E905D3063057}" name="Achszahl" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{260F1C3A-4BE9-46CC-95A3-9E05D8E76514}" name="Zahlart" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -519,26 +532,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74ADEC2E-7C9B-4BFD-AACB-ECF2D50E95AB}">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.5703125" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.85546875" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="11.85546875" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -552,25 +565,28 @@
         <v>19</v>
       </c>
       <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>13</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -582,19 +598,22 @@
         <v>20</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -606,19 +625,22 @@
         <v>20</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
@@ -630,19 +652,22 @@
         <v>23</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="1" t="s">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
@@ -655,8 +680,9 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
@@ -669,8 +695,9 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
@@ -683,8 +710,9 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
@@ -697,8 +725,9 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
@@ -711,6 +740,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
